--- a/Course-Outline/Advanced_C-3Days.xlsx
+++ b/Course-Outline/Advanced_C-3Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EFCB87-FD0E-4EB6-97CB-B0FD16992111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8297E105-1531-4C56-A891-530E081F74F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,12 +215,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -333,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -359,6 +365,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,17 +404,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,11 +727,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -733,18 +745,18 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -753,7 +765,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,7 +774,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -775,7 +787,7 @@
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -784,19 +796,19 @@
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -807,7 +819,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -816,7 +828,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -825,32 +837,32 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -859,7 +871,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -868,7 +880,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -877,7 +889,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -886,11 +898,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="14" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Course-Outline/Advanced_C-3Days.xlsx
+++ b/Course-Outline/Advanced_C-3Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8297E105-1531-4C56-A891-530E081F74F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC48BED-3342-4BA8-A06D-88684386079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,6 +377,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,12 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,11 +727,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -745,27 +745,27 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -801,14 +801,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -819,7 +819,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -837,14 +837,14 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -855,14 +855,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -898,7 +898,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>

--- a/Course-Outline/Advanced_C-3Days.xlsx
+++ b/Course-Outline/Advanced_C-3Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC48BED-3342-4BA8-A06D-88684386079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83A772-8E14-4042-BE38-599D77AB1A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,18 +359,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -409,6 +403,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,11 +727,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -745,70 +745,70 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -819,7 +819,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -837,32 +837,32 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -898,11 +898,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Course-Outline/Advanced_C-3Days.xlsx
+++ b/Course-Outline/Advanced_C-3Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83A772-8E14-4042-BE38-599D77AB1A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3A2C7D-3B4B-4192-8BDF-75DA52330DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -365,9 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,6 +374,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,9 +414,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -717,7 +723,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,11 +733,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -745,70 +751,70 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -819,7 +825,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -828,7 +834,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -837,14 +843,14 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -855,14 +861,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -871,7 +877,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -880,7 +886,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -889,7 +895,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -898,11 +904,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Course-Outline/Advanced_C-3Days.xlsx
+++ b/Course-Outline/Advanced_C-3Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3A2C7D-3B4B-4192-8BDF-75DA52330DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0433E91E-030B-4CA2-A9C4-40CE568C7023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,6 +386,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,9 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,11 +733,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -751,7 +751,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -762,7 +762,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
@@ -802,19 +802,19 @@
       <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -825,7 +825,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -834,7 +834,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -843,14 +843,14 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -861,14 +861,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -877,7 +877,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -895,7 +895,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -904,7 +904,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>

--- a/Course-Outline/Advanced_C-3Days.xlsx
+++ b/Course-Outline/Advanced_C-3Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0433E91E-030B-4CA2-A9C4-40CE568C7023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F28AD8-B15F-4B88-85AB-3531DBD7E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -353,9 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -722,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,11 +730,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -751,90 +748,90 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -843,33 +840,33 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -877,8 +874,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -886,8 +883,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -895,7 +892,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -904,11 +901,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Course-Outline/Advanced_C-3Days.xlsx
+++ b/Course-Outline/Advanced_C-3Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F28AD8-B15F-4B88-85AB-3531DBD7E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D62829-5F04-4D3C-9CFC-560261E5F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,10 +832,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Course-Outline/Advanced_C-3Days.xlsx
+++ b/Course-Outline/Advanced_C-3Days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D62829-5F04-4D3C-9CFC-560261E5F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DE4F1-59F4-459A-A436-1A12DAB418D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,9 +359,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,6 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,11 +730,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -748,124 +748,124 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
@@ -874,7 +874,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
@@ -883,7 +883,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
@@ -892,7 +892,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -901,11 +901,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>41</v>
       </c>
     </row>
